--- a/Agedcare.xlsx
+++ b/Agedcare.xlsx
@@ -1,267 +1,284 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhako\eclipse-workspace\StrongCare\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Table Data" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Configuration" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Signature" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Table Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Configuration" sheetId="2" r:id="rId2"/>
+    <sheet name="Signature" sheetId="3" r:id="rId3"/>
+    <sheet name="Data" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
-  <si>
-    <t xml:space="preserve">Transaction ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action (Static)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To/From (Location)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entered By (Static)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out (Static)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credentials Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credentials Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credentials Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5e26790f-e97b-47a9-978b-e42b5915acbc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(docusate + sennoside B) Soflax (AN) tablet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WA Nursing Home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arvind Nath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strongroompassword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Facility - West Ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40334233-18a9-4ca6-96a8-001718ec55e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(amoxicillin) amoxicillin 500 mg capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facility 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54eb5c05-efe3-4feb-b599-314ecc93cfb9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(bromocriptine) bromocriptine 5 mg capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windsor Charles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2aa9cdef-0d43-444f-95eb-e4a4c77ca455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(clotrimazole) clotrimazole 1% lotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final Facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jerry RAC004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">063e6efa-a193-4d9e-880a-914d509de3c2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(doxazosin) doxazosin 4 mg tablet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ita Rooney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7c00e757-ce25-4972-8ad0-9cc6c7c814e2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(buprenorphine) Norspan 20 microgram/hour patch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Facility 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robyn Dhar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4f7b15a8-f784-4f6c-8d60-726117dd1af9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(everolimus) everolimus 10 mg tablet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert Jones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b47d14be-7c70-4376-944d-1403e210f766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(fluorouracil) fluorouracil 5% cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ted Bryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9952a973-8da0-41fc-ac0f-6b93ceb22dba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(oxycodone) Endone 5 mg tablet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fe0be095-415b-4e6b-a0d2-76cccd8b3002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(wool fat) wool fat 1 g/g ointment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael ILU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f7f38e97-83e8-49d4-ba47-fb184baa8675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(gentamicin) gentamicin 40 mg/mL injection, ampoule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pamela Butler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">076bdc53-820c-4e06-b7de-bb14bdfba61b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(lidocaine) lidocaine hydrochloride 4% cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perry Grant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108f9bc3-ef0d-4936-bcf7-d67034d0531b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(methadone) methadone hydrochloride 500 microgram/mL oral liquid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imprest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Springer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4ff2a345-b25f-4bdb-843a-3193ef9f70b5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(prilocaine) prilocaine hydrochloride 1% (50 mg/5 mL) injection, ampoule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loc-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">251f26cf-275f-417b-ac18-be0e8267078e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(amoxicillin) Yomax 500 mg capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overall ecase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matilda Kerr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LoginUrl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username/email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://staging.strongroom.ai/login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIN/Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valeshan.naidoo@strongroom.ai</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>Drug</t>
+  </si>
+  <si>
+    <t>Action (Static)</t>
+  </si>
+  <si>
+    <t>To/From (Location)</t>
+  </si>
+  <si>
+    <t>Resident</t>
+  </si>
+  <si>
+    <t>Entered By (Static)</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Out (Static)</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Credentials Username</t>
+  </si>
+  <si>
+    <t>Credentials Password</t>
+  </si>
+  <si>
+    <t>Credentials Location</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>5e26790f-e97b-47a9-978b-e42b5915acbc</t>
+  </si>
+  <si>
+    <t>(docusate + sennoside B) Soflax (AN) tablet</t>
+  </si>
+  <si>
+    <t>Transfer in</t>
+  </si>
+  <si>
+    <t>WA Nursing Home</t>
+  </si>
+  <si>
+    <t>Arvind Nath</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>strongroompassword</t>
+  </si>
+  <si>
+    <t>Internal Testing</t>
+  </si>
+  <si>
+    <t>Internal Facility - West Ward</t>
+  </si>
+  <si>
+    <t>40334233-18a9-4ca6-96a8-001718ec55e3</t>
+  </si>
+  <si>
+    <t>(amoxicillin) amoxicillin 500 mg capsule</t>
+  </si>
+  <si>
+    <t>Facility 3</t>
+  </si>
+  <si>
+    <t>54eb5c05-efe3-4feb-b599-314ecc93cfb9</t>
+  </si>
+  <si>
+    <t>(bromocriptine) bromocriptine 5 mg capsule</t>
+  </si>
+  <si>
+    <t>External facility</t>
+  </si>
+  <si>
+    <t>Windsor Charles</t>
+  </si>
+  <si>
+    <t>2aa9cdef-0d43-444f-95eb-e4a4c77ca455</t>
+  </si>
+  <si>
+    <t>(clotrimazole) clotrimazole 1% lotion</t>
+  </si>
+  <si>
+    <t>Final Facility</t>
+  </si>
+  <si>
+    <t>Jerry RAC004</t>
+  </si>
+  <si>
+    <t>063e6efa-a193-4d9e-880a-914d509de3c2</t>
+  </si>
+  <si>
+    <t>(doxazosin) doxazosin 4 mg tablet</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>Ita Rooney</t>
+  </si>
+  <si>
+    <t>7c00e757-ce25-4972-8ad0-9cc6c7c814e2</t>
+  </si>
+  <si>
+    <t>(buprenorphine) Norspan 20 microgram/hour patch</t>
+  </si>
+  <si>
+    <t>Internal Facility 2</t>
+  </si>
+  <si>
+    <t>Robyn Dhar</t>
+  </si>
+  <si>
+    <t>4f7b15a8-f784-4f6c-8d60-726117dd1af9</t>
+  </si>
+  <si>
+    <t>(everolimus) everolimus 10 mg tablet</t>
+  </si>
+  <si>
+    <t>Robert Jones</t>
+  </si>
+  <si>
+    <t>b47d14be-7c70-4376-944d-1403e210f766</t>
+  </si>
+  <si>
+    <t>(fluorouracil) fluorouracil 5% cream</t>
+  </si>
+  <si>
+    <t>Ted Bryan</t>
+  </si>
+  <si>
+    <t>9952a973-8da0-41fc-ac0f-6b93ceb22dba</t>
+  </si>
+  <si>
+    <t>(oxycodone) Endone 5 mg tablet</t>
+  </si>
+  <si>
+    <t>fe0be095-415b-4e6b-a0d2-76cccd8b3002</t>
+  </si>
+  <si>
+    <t>(wool fat) wool fat 1 g/g ointment</t>
+  </si>
+  <si>
+    <t>Michael ILU</t>
+  </si>
+  <si>
+    <t>f7f38e97-83e8-49d4-ba47-fb184baa8675</t>
+  </si>
+  <si>
+    <t>(gentamicin) gentamicin 40 mg/mL injection, ampoule</t>
+  </si>
+  <si>
+    <t>Pamela Butler</t>
+  </si>
+  <si>
+    <t>076bdc53-820c-4e06-b7de-bb14bdfba61b</t>
+  </si>
+  <si>
+    <t>(lidocaine) lidocaine hydrochloride 4% cream</t>
+  </si>
+  <si>
+    <t>Perry Grant</t>
+  </si>
+  <si>
+    <t>108f9bc3-ef0d-4936-bcf7-d67034d0531b</t>
+  </si>
+  <si>
+    <t>(methadone) methadone hydrochloride 500 microgram/mL oral liquid</t>
+  </si>
+  <si>
+    <t>Imprest</t>
+  </si>
+  <si>
+    <t>David Springer</t>
+  </si>
+  <si>
+    <t>4ff2a345-b25f-4bdb-843a-3193ef9f70b5</t>
+  </si>
+  <si>
+    <t>(prilocaine) prilocaine hydrochloride 1% (50 mg/5 mL) injection, ampoule</t>
+  </si>
+  <si>
+    <t>Loc-1</t>
+  </si>
+  <si>
+    <t>251f26cf-275f-417b-ac18-be0e8267078e</t>
+  </si>
+  <si>
+    <t>(amoxicillin) Yomax 500 mg capsule</t>
+  </si>
+  <si>
+    <t>overall ecase</t>
+  </si>
+  <si>
+    <t>Matilda Kerr</t>
+  </si>
+  <si>
+    <t>LoginUrl</t>
+  </si>
+  <si>
+    <t>Username/email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Select Location</t>
+  </si>
+  <si>
+    <t>https://staging.strongroom.ai/login</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>PIN/Password</t>
+  </si>
+  <si>
+    <t>valeshan.naidoo@strongroom.ai</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Transfer in Imprest</t>
+  </si>
+  <si>
+    <t>Added by parth</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>Transfer out Imprest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
@@ -271,133 +288,402 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+  <borders count="2">
+    <border/>
+    <border>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal>
+        <color indexed="64"/>
+      </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+          <a:tileRect/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:N19"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="1:1048576"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.74219" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="24.49"/>
+    <col min="1" max="1" width="5.7" customWidth="1"/>
+    <col min="2" max="2" width="35.15" customWidth="1"/>
+    <col min="3" max="3" width="59.74" customWidth="1"/>
+    <col min="4" max="4" width="12.64" customWidth="1"/>
+    <col min="5" max="5" width="16.67" customWidth="1"/>
+    <col min="6" max="6" width="18.47" customWidth="1"/>
+    <col min="7" max="7" width="20.01" customWidth="1"/>
+    <col min="8" max="8" width="5.42" customWidth="1"/>
+    <col min="11" max="11" width="19.36" customWidth="1"/>
+    <col min="12" max="12" width="19.08" customWidth="1"/>
+    <col min="13" max="14" width="24.49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,20 +711,20 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
@@ -451,29 +737,29 @@
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="3">
         <v>1</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3">
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
@@ -486,29 +772,29 @@
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="3">
         <v>2</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4">
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
@@ -521,29 +807,29 @@
       <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>3</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5">
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
@@ -556,29 +842,29 @@
       <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>4</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6">
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
@@ -591,29 +877,29 @@
       <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="3">
         <v>5</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7">
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
@@ -630,25 +916,25 @@
         <v>40</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="3">
         <v>6</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8">
       <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
@@ -665,25 +951,25 @@
         <v>43</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="3">
         <v>7</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="N8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9">
       <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
@@ -700,25 +986,25 @@
         <v>46</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="3">
         <v>8</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="0" t="s">
+      <c r="K9" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10">
       <c r="B10" s="1" t="s">
         <v>47</v>
       </c>
@@ -735,25 +1021,25 @@
         <v>36</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="3">
         <v>9</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="N10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11">
       <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
@@ -766,29 +1052,29 @@
       <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="3">
         <v>10</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="N11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12">
       <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
@@ -801,29 +1087,29 @@
       <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="3">
         <v>11</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="0" t="s">
+      <c r="K12" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="M12" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="N12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13">
       <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
@@ -840,25 +1126,25 @@
         <v>57</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="3">
         <v>12</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="0" t="s">
+      <c r="K13" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="M13" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="N13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14">
       <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
@@ -871,29 +1157,29 @@
       <c r="E14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>61</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="3">
         <v>13</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="0" t="s">
+      <c r="K14" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="M14" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15">
       <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
@@ -910,25 +1196,25 @@
         <v>40</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="3" t="n">
+      <c r="H15" s="3">
         <v>14</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="0" t="s">
+      <c r="K15" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="L15" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="M15" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="N15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16">
       <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
@@ -941,42 +1227,41 @@
       <c r="E16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>68</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="3">
         <v>15</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="0" t="s">
+      <c r="K16" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="L16" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="M16" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="N16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17">
       <c r="E17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18">
       <c r="E18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19">
       <c r="E19" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.7875" right="0.7875" top="1.052778" bottom="1.052778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -984,64 +1269,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="1:1048576"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.31"/>
+    <col min="1" max="1" width="31.57031" customWidth="1"/>
+    <col min="2" max="2" width="17.85547" customWidth="1"/>
+    <col min="3" max="3" width="18.85547" customWidth="1"/>
+    <col min="4" max="4" width="28.14063" customWidth="1"/>
+    <col min="5" max="5" width="27.42578" customWidth="1"/>
+    <col min="6" max="6" width="16.85547" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.7875" right="0.7875" top="1.052778" bottom="1.052778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1049,36 +1330,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:C2"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="1:1048576"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72266" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.72"/>
+    <col min="1" max="1" width="12.78" customWidth="1"/>
+    <col min="2" max="2" width="27.65" customWidth="1"/>
+    <col min="3" max="3" width="14.72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1">
+      <c r="B1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2">
       <c r="B2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="5">
         <v>1111</v>
       </c>
     </row>
@@ -1086,12 +1363,161 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="valeshan.naidoo@strongroom.ai"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.7875" right="0.7875" top="1.052778" bottom="1.052778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="19.71094" customWidth="1"/>
+    <col min="2" max="2" width="25.14063" customWidth="1"/>
+    <col min="3" max="3" width="42.71094" customWidth="1"/>
+    <col min="4" max="4" width="42.71094" customWidth="1"/>
+    <col min="5" max="5" width="42.71094" customWidth="1"/>
+    <col min="6" max="6" width="10.42578" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="30.28516" customWidth="1"/>
+    <col min="9" max="9" width="17.28516" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75">
+      <c r="A1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A4">
+      <formula1>"Outgoing Patient,Outgoing imprest,Destroy Patient,Destroy imprest,Transfer out Patient,Transfer out Imprest,Transfer in Patient,Transfer in Imprest"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="valeshan.naidoo@strongroom.ai"/>
+    <hyperlink ref="H3" r:id="rId2" display="valeshan.naidoo@strongroom.ai"/>
+    <hyperlink ref="H4" r:id="rId3" display="valeshan.naidoo@strongroom.ai"/>
+  </hyperlinks>
+</worksheet>
 </file>
--- a/Agedcare.xlsx
+++ b/Agedcare.xlsx
@@ -5,24 +5,25 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table Data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Configuration" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Signature" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Data" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="81">
   <si>
     <t xml:space="preserve">Transaction ID</t>
   </si>
@@ -253,6 +254,18 @@
   </si>
   <si>
     <t xml:space="preserve">valeshan.naidoo@strongroom.ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added By Mayur</t>
   </si>
 </sst>
 </file>
@@ -262,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -288,16 +301,41 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -309,7 +347,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -333,8 +371,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -359,15 +400,88 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Bad" xfId="20"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -378,11 +492,11 @@
   </sheetPr>
   <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -397,7 +511,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="24.49"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
@@ -473,7 +587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
@@ -508,7 +622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
@@ -543,7 +657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
@@ -578,7 +692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
@@ -613,7 +727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
@@ -648,7 +762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
@@ -683,7 +797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
@@ -718,7 +832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
         <v>47</v>
       </c>
@@ -753,7 +867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
@@ -788,7 +902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
@@ -823,7 +937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
@@ -858,7 +972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
@@ -893,7 +1007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
@@ -928,7 +1042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
@@ -963,13 +1077,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="2"/>
     </row>
   </sheetData>
@@ -991,19 +1105,20 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>69</v>
       </c>
@@ -1020,7 +1135,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>73</v>
       </c>
@@ -1056,17 +1171,17 @@
   <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.72"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
         <v>74</v>
       </c>
@@ -1074,7 +1189,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
         <v>76</v>
       </c>
@@ -1094,4 +1209,157 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="42.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="30.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.29"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1111</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="valeshan.naidoo@strongroom.ai"/>
+    <hyperlink ref="H3" r:id="rId2" display="valeshan.naidoo@strongroom.ai"/>
+    <hyperlink ref="H4" r:id="rId3" display="valeshan.naidoo@strongroom.ai"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Agedcare.xlsx
+++ b/Agedcare.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="90">
   <si>
     <t xml:space="preserve">Transaction ID</t>
   </si>
@@ -265,7 +265,34 @@
     <t xml:space="preserve">Note</t>
   </si>
   <si>
-    <t xml:space="preserve">Added By Mayur</t>
+    <t xml:space="preserve">Transfer in Imprest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer out Imprest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer in Patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destroy imprest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outgoing Patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outgoing imprest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destroy Patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer out Patient</t>
   </si>
 </sst>
 </file>
@@ -275,7 +302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -315,6 +342,13 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -375,7 +409,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -408,7 +442,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -492,11 +530,11 @@
   </sheetPr>
   <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -1108,14 +1146,14 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,10 +1209,10 @@
   <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.65"/>
@@ -1216,23 +1254,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="42.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="30.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.29"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>77</v>
       </c>
@@ -1261,9 +1300,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -1281,18 +1320,18 @@
         <v>2</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="5" t="n">
-        <v>1111</v>
+      <c r="I2" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
+      <c r="A3" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
@@ -1309,19 +1348,19 @@
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>80</v>
+      <c r="G3" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="5" t="n">
-        <v>1111</v>
+      <c r="I3" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
+      <c r="A4" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -1338,21 +1377,177 @@
       <c r="F4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>80</v>
+      <c r="G4" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="5" t="n">
-        <v>1111</v>
+      <c r="I4" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A9" type="list">
+      <formula1>"Outgoing Patient,Outgoing imprest,Destroy Patient,Destroy imprest,Transfer out Patient,Transfer out Imprest,Transfer in Patient,Transfer in Imprest"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="valeshan.naidoo@strongroom.ai"/>
     <hyperlink ref="H3" r:id="rId2" display="valeshan.naidoo@strongroom.ai"/>
     <hyperlink ref="H4" r:id="rId3" display="valeshan.naidoo@strongroom.ai"/>
+    <hyperlink ref="H5" r:id="rId4" display="valeshan.naidoo@strongroom.ai"/>
+    <hyperlink ref="H6" r:id="rId5" display="valeshan.naidoo@strongroom.ai"/>
+    <hyperlink ref="H7" r:id="rId6" display="valeshan.naidoo@strongroom.ai"/>
+    <hyperlink ref="H8" r:id="rId7" display="valeshan.naidoo@strongroom.ai"/>
+    <hyperlink ref="H9" r:id="rId8" display="valeshan.naidoo@strongroom.ai"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Agedcare.xlsx
+++ b/Agedcare.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
   <si>
     <t xml:space="preserve">Transaction ID</t>
   </si>
@@ -265,13 +265,10 @@
     <t xml:space="preserve">Note</t>
   </si>
   <si>
-    <t xml:space="preserve">Transfer in Imprest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quinapril 10 mg tablet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anthony Jones</t>
+    <t xml:space="preserve">Transfer out Imprest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetec 5 mg tablet</t>
   </si>
   <si>
     <t xml:space="preserve">Added Note</t>
@@ -280,7 +277,7 @@
     <t xml:space="preserve">1111</t>
   </si>
   <si>
-    <t xml:space="preserve">Transfer out Imprest</t>
+    <t xml:space="preserve">Endone 5 mg tablet</t>
   </si>
 </sst>
 </file>
@@ -513,7 +510,7 @@
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -1122,10 +1119,10 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.86"/>
@@ -1191,7 +1188,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.65"/>
@@ -1236,10 +1233,10 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.85"/>
@@ -1291,46 +1288,45 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>84</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Agedcare.xlsx
+++ b/Agedcare.xlsx
@@ -265,10 +265,10 @@
     <t xml:space="preserve">Note</t>
   </si>
   <si>
-    <t xml:space="preserve">Transfer out Imprest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetec 5 mg tablet</t>
+    <t xml:space="preserve">Transfer out Patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hmhhm</t>
   </si>
   <si>
     <t xml:space="preserve">Added Note</t>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">1111</t>
   </si>
   <si>
-    <t xml:space="preserve">Endone 5 mg tablet</t>
+    <t xml:space="preserve">mhmhm</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -1122,7 +1122,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.86"/>
@@ -1188,7 +1188,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.65"/>
@@ -1233,10 +1233,10 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.85"/>

--- a/Agedcare.xlsx
+++ b/Agedcare.xlsx
@@ -245,15 +245,15 @@
     <t>https://staging.strongroom.ai/login</t>
   </si>
   <si>
+    <t>valeshan.naidoo@strongroom.ai</t>
+  </si>
+  <si>
     <t>Username</t>
   </si>
   <si>
     <t>PIN/Password</t>
   </si>
   <si>
-    <t>valeshan.naidoo@strongroom.ai</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
@@ -263,10 +263,13 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Transfer in Imprest</t>
-  </si>
-  <si>
-    <t>alprazolam 1 mg tablet</t>
+    <t>Transfer in Patient</t>
+  </si>
+  <si>
+    <t>Morphine Sulfate (DBL) 15 mg/mL injection, ampoule</t>
+  </si>
+  <si>
+    <t>Nancy Holt</t>
   </si>
   <si>
     <t>Added Note</t>
@@ -275,62 +278,14 @@
     <t>1111</t>
   </si>
   <si>
-    <t>Transfer in Patient</t>
-  </si>
-  <si>
-    <t>Transfer out Imprest</t>
-  </si>
-  <si>
-    <t>6e26790f-e97b-47a9-978b-e42b5915acbc</t>
-  </si>
-  <si>
-    <t>Transfer out Patient</t>
-  </si>
-  <si>
-    <t>7e26790f-e97b-47a9-978b-e42b5915acbc</t>
-  </si>
-  <si>
-    <t>John Demo</t>
-  </si>
-  <si>
-    <t>Destroy imprest</t>
-  </si>
-  <si>
-    <t>prilocaine hydrochloride 1% (50 mg/5 mL) injection, ampoule</t>
-  </si>
-  <si>
-    <t>8e26790f-e97b-47a9-978b-e42b5915acbc</t>
-  </si>
-  <si>
-    <t>Destroy Patient</t>
-  </si>
-  <si>
-    <t>(rufinamide) Inovelon 200 mg tablet</t>
-  </si>
-  <si>
-    <t>9e26790f-e97b-47a9-978b-e42b5915acbc</t>
-  </si>
-  <si>
-    <t>Nancy Holt</t>
-  </si>
-  <si>
-    <t>Outgoing imprest</t>
-  </si>
-  <si>
-    <t>10e26790f-e97b-47a9-978b-e42b5915acbc</t>
-  </si>
-  <si>
-    <t>Outgoing Patient</t>
-  </si>
-  <si>
-    <t>11e26790f-e97b-47a9-978b-e42b5915acbc</t>
+    <t>Endone 5 mg tablet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -365,11 +320,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -385,31 +335,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -425,12 +358,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,7 +730,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.19141" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.7" customWidth="1"/>
     <col min="2" max="2" width="35.15" customWidth="1"/>
@@ -1407,10 +1334,10 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.30859" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.54297" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="31.57" customWidth="1"/>
     <col min="2" max="2" width="17.86" customWidth="1"/>
@@ -1437,7 +1364,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="12.8">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1445,7 +1372,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1471,7 +1398,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94141" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.17188" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="12.78" customWidth="1"/>
     <col min="2" max="2" width="27.65" customWidth="1"/>
@@ -1480,15 +1407,15 @@
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="5">
         <v>1111</v>
@@ -1511,18 +1438,18 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="A1:XFD1048576"/>
+      <selection activeCell="E4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.824219" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.72266" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.71" customWidth="1"/>
-    <col min="2" max="2" width="25.14" customWidth="1"/>
-    <col min="3" max="5" width="42.71" customWidth="1"/>
-    <col min="6" max="6" width="10.42" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="30.28" customWidth="1"/>
-    <col min="9" max="9" width="17.29" customWidth="1"/>
+    <col min="1" max="1" width="18.85547" customWidth="1"/>
+    <col min="3" max="3" width="60.85" customWidth="1"/>
+    <col min="4" max="4" width="20.56" customWidth="1"/>
+    <col min="5" max="5" width="18.06" customWidth="1"/>
+    <col min="7" max="7" width="13.06" customWidth="1"/>
+    <col min="8" max="8" width="27.92" customWidth="1"/>
+    <col min="9" max="9" width="16.81" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75">
@@ -1548,235 +1475,76 @@
         <v>79</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" ht="15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11">
-        <v>2</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" ht="15">
+      <c r="H2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="11">
-        <v>2</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" ht="15">
-      <c r="A4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11">
-        <v>2</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" ht="15">
-      <c r="A5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="11">
-        <v>2</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" ht="15">
-      <c r="A6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" ht="15">
-      <c r="A7" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="11">
-        <v>2</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" ht="15">
-      <c r="A8" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11">
-        <v>2</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="9">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="9" ht="15">
-      <c r="A9" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="11">
-        <v>2</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A3">
       <formula1>"Outgoing Patient,Outgoing imprest,Destroy Patient,Destroy imprest,Transfer out Patient,Transfer out Imprest,Transfer in Patient,Transfer in Imprest"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7479166" right="0.7479166" top="0.9840278" bottom="0.9840278" header="0.5118055" footer="0.5118055"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.052778" bottom="1.052778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>